--- a/utable.xlsx
+++ b/utable.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26040" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="74">
   <si>
     <t>Tops/T-shirts</t>
   </si>
@@ -102,6 +103,147 @@
   <si>
     <t>Nightwear&amp;Underwear</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions </t>
+  </si>
+  <si>
+    <t>budget buyer</t>
+  </si>
+  <si>
+    <t>high spender</t>
+  </si>
+  <si>
+    <t>price-for-quality buyer</t>
+  </si>
+  <si>
+    <t>morning time</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>night time</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>working day</t>
+  </si>
+  <si>
+    <t>shop is crowded</t>
+  </si>
+  <si>
+    <t>shop is not crowded</t>
+  </si>
+  <si>
+    <t>shop is empty</t>
+  </si>
+  <si>
+    <t>shopaholic</t>
+  </si>
+  <si>
+    <t>outdoorsy</t>
+  </si>
+  <si>
+    <t>like a party animal</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>purchasing intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weather </t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>daily wear</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>no special</t>
+  </si>
+  <si>
+    <t>with girl-/boy-friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with family </t>
+  </si>
+  <si>
+    <t>with children</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>with friends</t>
+  </si>
+  <si>
+    <t>snowing</t>
+  </si>
+  <si>
+    <t>clear sky</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>raining</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>public transport</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>half day</t>
+  </si>
+  <si>
+    <t>one day</t>
   </si>
 </sst>
 </file>
@@ -180,8 +322,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -205,7 +351,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -215,6 +361,8 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -223,6 +371,8 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -553,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J13"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection sqref="A1:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1742,4 +1892,254 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>